--- a/data/georgia_census/imereti/zestafoni/average_wages.xlsx
+++ b/data/georgia_census/imereti/zestafoni/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AEA8398-6AFB-4201-A2E0-D3B14AE427D1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39325E7D-8A02-49D9-9B59-D9B278A071EF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1766F9-5B1B-4ABA-A6E5-86C8553EFEFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBA9602-7E2C-4B25-989D-4D371571FAFB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2255A443-54F5-42FE-AF49-470B356B9F95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22B233BA-435C-4339-B519-38A780844030}"/>
 </file>